--- a/Relatorios/ENVIOS 1Q0323 - Copia.xlsx
+++ b/Relatorios/ENVIOS 1Q0323 - Copia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Misael\Documents\Estudos\Sistema-E-log\Relatorios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BAC92C-4989-4CC4-8B7C-D65C0792604E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8131DB-DA95-4FE7-A299-A9F3F8567166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="584">
   <si>
     <t>NOME</t>
   </si>
@@ -1782,6 +1782,9 @@
   </si>
   <si>
     <t>CONTATO</t>
+  </si>
+  <si>
+    <t>STATUS</t>
   </si>
 </sst>
 </file>
@@ -2099,10 +2102,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E290"/>
+  <dimension ref="A1:F290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2112,7 +2115,7 @@
     <col min="4" max="4" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>97</v>
       </c>
@@ -2128,8 +2131,11 @@
       <c r="E1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2146,7 +2152,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2163,7 +2169,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2180,7 +2186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>105</v>
       </c>
@@ -2197,7 +2203,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2214,7 +2220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2231,7 +2237,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2248,7 +2254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>110</v>
       </c>
@@ -2265,7 +2271,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2282,7 +2288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>113</v>
       </c>
@@ -2299,7 +2305,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2316,7 +2322,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2333,7 +2339,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2350,7 +2356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2367,7 +2373,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>119</v>
       </c>
